--- a/medicine/Pharmacie/Idarubicine/Idarubicine.xlsx
+++ b/medicine/Pharmacie/Idarubicine/Idarubicine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'idarubicine ou 4-déméthoxydaunorubicine est un anticancéreux de type anthracycline. Elle s'insère dans l'ADN et l'empêche de se dérouler en interférant avec l'enzyme topoisomérase II. C'est un analogue de la daunorubicine, mais l'absence de groupe méthoxy accroît sa liposolubilité et son absorption cellulaire[RCP 1].
@@ -512,13 +524,15 @@
           <t>Indications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>L'idarubicine est indiquée dans le traitement des leucémies :
 en association avec la cytarabine en 1re ligne d’induction de la rémission chez des enfants non précédemment traités et atteints de leucémie aiguë myéloïde (LAM)[RCP 2];
 en traitement d'induction des leucémies aiguës myéloïdes de l'adulte (protocole 7+3)[RCP 1];
 leucémies aiguës lymphoblastiques en rechute;
-dans le traitement de la leucémie aiguë promyélocytaire en association avec l'acide tout-trans rétinoïque (protocole AIDA), indication[3] ; l'usage des anthracyclines dans cette indication se réduit au profit du trioxyde d'arsenic.</t>
+dans le traitement de la leucémie aiguë promyélocytaire en association avec l'acide tout-trans rétinoïque (protocole AIDA), indication ; l'usage des anthracyclines dans cette indication se réduit au profit du trioxyde d'arsenic.</t>
         </is>
       </c>
     </row>
